--- a/Code/Results/Cases/Case_4_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.07213155727068</v>
+        <v>1.102120194723294</v>
       </c>
       <c r="D2">
-        <v>1.079870300870399</v>
+        <v>1.099051961338214</v>
       </c>
       <c r="E2">
-        <v>1.08828926496772</v>
+        <v>1.114234865966422</v>
       </c>
       <c r="F2">
-        <v>1.091741047045343</v>
+        <v>1.117537558719009</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.08483082642358</v>
+        <v>1.076087562473893</v>
       </c>
       <c r="J2">
-        <v>1.092349849233075</v>
+        <v>1.106894590211531</v>
       </c>
       <c r="K2">
-        <v>1.090318726245639</v>
+        <v>1.101677628943686</v>
       </c>
       <c r="L2">
-        <v>1.098641796817142</v>
+        <v>1.116822843137496</v>
       </c>
       <c r="M2">
-        <v>1.102054788841246</v>
+        <v>1.120117483042885</v>
       </c>
       <c r="N2">
-        <v>1.093901111313265</v>
+        <v>1.108466507492216</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.080463150612893</v>
+        <v>1.103679922697071</v>
       </c>
       <c r="D3">
-        <v>1.086830981882088</v>
+        <v>1.10033974590183</v>
       </c>
       <c r="E3">
-        <v>1.096188664270692</v>
+        <v>1.115751141942976</v>
       </c>
       <c r="F3">
-        <v>1.099607279093175</v>
+        <v>1.119044790983635</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.088790182003392</v>
+        <v>1.076710851473056</v>
       </c>
       <c r="J3">
-        <v>1.098977195547018</v>
+        <v>1.10812088154234</v>
       </c>
       <c r="K3">
-        <v>1.096461501841637</v>
+        <v>1.10278600374313</v>
       </c>
       <c r="L3">
-        <v>1.105722727817309</v>
+        <v>1.118161923766851</v>
       </c>
       <c r="M3">
-        <v>1.109106603046043</v>
+        <v>1.121448126731981</v>
       </c>
       <c r="N3">
-        <v>1.100537869219141</v>
+        <v>1.109694540297372</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.085672906521721</v>
+        <v>1.10468655781842</v>
       </c>
       <c r="D4">
-        <v>1.091180858836557</v>
+        <v>1.101170204090461</v>
       </c>
       <c r="E4">
-        <v>1.101131711085044</v>
+        <v>1.116729913526745</v>
       </c>
       <c r="F4">
-        <v>1.104529127899789</v>
+        <v>1.120017638135905</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.091250881115137</v>
+        <v>1.077111342229048</v>
       </c>
       <c r="J4">
-        <v>1.103112870307618</v>
+        <v>1.10891128245145</v>
       </c>
       <c r="K4">
-        <v>1.100290592883865</v>
+        <v>1.103499812096899</v>
       </c>
       <c r="L4">
-        <v>1.11014555197346</v>
+        <v>1.119025516632918</v>
       </c>
       <c r="M4">
-        <v>1.113510707209848</v>
+        <v>1.122306185179208</v>
       </c>
       <c r="N4">
-        <v>1.10467941711227</v>
+        <v>1.110486063666433</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.087822354831633</v>
+        <v>1.105109132744103</v>
       </c>
       <c r="D5">
-        <v>1.092974842631468</v>
+        <v>1.101518661710576</v>
       </c>
       <c r="E5">
-        <v>1.103171917161602</v>
+        <v>1.117140834327761</v>
       </c>
       <c r="F5">
-        <v>1.106560475035959</v>
+        <v>1.120426050929197</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.092262470578478</v>
+        <v>1.077279039038809</v>
       </c>
       <c r="J5">
-        <v>1.104817122930408</v>
+        <v>1.10924283606839</v>
       </c>
       <c r="K5">
-        <v>1.101867495177305</v>
+        <v>1.103799095674669</v>
       </c>
       <c r="L5">
-        <v>1.111969114132474</v>
+        <v>1.119387890839413</v>
       </c>
       <c r="M5">
-        <v>1.115326420700337</v>
+        <v>1.122666214727977</v>
       </c>
       <c r="N5">
-        <v>1.106386089969264</v>
+        <v>1.110818088127538</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.088180941278588</v>
+        <v>1.105180049221648</v>
       </c>
       <c r="D6">
-        <v>1.093274085423845</v>
+        <v>1.101577130430754</v>
       </c>
       <c r="E6">
-        <v>1.103512324455095</v>
+        <v>1.11720979750407</v>
       </c>
       <c r="F6">
-        <v>1.10689939768442</v>
+        <v>1.120494591980725</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.092431015748007</v>
+        <v>1.077307156965545</v>
       </c>
       <c r="J6">
-        <v>1.105101317175772</v>
+        <v>1.109298462783838</v>
       </c>
       <c r="K6">
-        <v>1.102130393345047</v>
+        <v>1.103849299959338</v>
       </c>
       <c r="L6">
-        <v>1.112273261474165</v>
+        <v>1.119448695453857</v>
       </c>
       <c r="M6">
-        <v>1.115629251253569</v>
+        <v>1.122726624609362</v>
       </c>
       <c r="N6">
-        <v>1.106670687803055</v>
+        <v>1.110873793839303</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.085701784253631</v>
+        <v>1.104692206685987</v>
       </c>
       <c r="D7">
-        <v>1.091204963746883</v>
+        <v>1.10117486280772</v>
       </c>
       <c r="E7">
-        <v>1.101159118062764</v>
+        <v>1.116735406437727</v>
       </c>
       <c r="F7">
-        <v>1.104556416309677</v>
+        <v>1.120023097603054</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.091264486261883</v>
+        <v>1.077113585626122</v>
       </c>
       <c r="J7">
-        <v>1.103135775017135</v>
+        <v>1.108915715547764</v>
       </c>
       <c r="K7">
-        <v>1.100311790053671</v>
+        <v>1.10350381427707</v>
       </c>
       <c r="L7">
-        <v>1.110170056294993</v>
+        <v>1.119030361355681</v>
       </c>
       <c r="M7">
-        <v>1.113535106583186</v>
+        <v>1.122310998643214</v>
       </c>
       <c r="N7">
-        <v>1.104702354349101</v>
+        <v>1.110490503058253</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.074986504112627</v>
+        <v>1.102647859888752</v>
       </c>
       <c r="D8">
-        <v>1.082256005416709</v>
+        <v>1.099487764558405</v>
       </c>
       <c r="E8">
-        <v>1.090995330029612</v>
+        <v>1.114747793487073</v>
       </c>
       <c r="F8">
-        <v>1.09443584192206</v>
+        <v>1.118047444890255</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.08619073585476</v>
+        <v>1.076298792814556</v>
       </c>
       <c r="J8">
-        <v>1.094622570783167</v>
+        <v>1.107309666804293</v>
       </c>
       <c r="K8">
-        <v>1.092426160012105</v>
+        <v>1.102052915413728</v>
       </c>
       <c r="L8">
-        <v>1.101069195250526</v>
+        <v>1.117275994263278</v>
       </c>
       <c r="M8">
-        <v>1.104472317288129</v>
+        <v>1.120567798428859</v>
       </c>
       <c r="N8">
-        <v>1.096177060388643</v>
+        <v>1.108882173541349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.054580043377621</v>
+        <v>1.099024944878801</v>
       </c>
       <c r="D9">
-        <v>1.065194839140688</v>
+        <v>1.09649283470093</v>
       </c>
       <c r="E9">
-        <v>1.07167100785093</v>
+        <v>1.111226823637951</v>
       </c>
       <c r="F9">
-        <v>1.07519022117713</v>
+        <v>1.114546995310073</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.076405866775576</v>
+        <v>1.074841193180937</v>
       </c>
       <c r="J9">
-        <v>1.078342451631571</v>
+        <v>1.104455510953423</v>
       </c>
       <c r="K9">
-        <v>1.077311867557866</v>
+        <v>1.099469932736697</v>
       </c>
       <c r="L9">
-        <v>1.08369924562746</v>
+        <v>1.114162067321344</v>
       </c>
       <c r="M9">
-        <v>1.087170773305334</v>
+        <v>1.117472973176619</v>
       </c>
       <c r="N9">
-        <v>1.079873821600496</v>
+        <v>1.106023964461795</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.03973138559685</v>
+        <v>1.096595171219803</v>
       </c>
       <c r="D10">
-        <v>1.052772765065855</v>
+        <v>1.094480808266609</v>
       </c>
       <c r="E10">
-        <v>1.057636197344847</v>
+        <v>1.108866391013653</v>
       </c>
       <c r="F10">
-        <v>1.061210481502093</v>
+        <v>1.112199870146776</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.069204340046557</v>
+        <v>1.073854443032921</v>
       </c>
       <c r="J10">
-        <v>1.066452731467294</v>
+        <v>1.102535958225246</v>
       </c>
       <c r="K10">
-        <v>1.066250363842434</v>
+        <v>1.097729698252792</v>
       </c>
       <c r="L10">
-        <v>1.071037350178926</v>
+        <v>1.1120703691023</v>
       </c>
       <c r="M10">
-        <v>1.074556022552494</v>
+        <v>1.115393622038903</v>
       </c>
       <c r="N10">
-        <v>1.067967216669815</v>
+        <v>1.104101685748568</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.032947072884805</v>
+        <v>1.095539456243773</v>
       </c>
       <c r="D11">
-        <v>1.047096701673657</v>
+        <v>1.093605793593573</v>
       </c>
       <c r="E11">
-        <v>1.05123124977194</v>
+        <v>1.107841039563908</v>
       </c>
       <c r="F11">
-        <v>1.054830246847651</v>
+        <v>1.111180192693464</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.065895117876591</v>
+        <v>1.073423531310431</v>
       </c>
       <c r="J11">
-        <v>1.061010663829431</v>
+        <v>1.101700659384212</v>
       </c>
       <c r="K11">
-        <v>1.061181931844811</v>
+        <v>1.096971705521693</v>
       </c>
       <c r="L11">
-        <v>1.06524763693241</v>
+        <v>1.111160768129803</v>
       </c>
       <c r="M11">
-        <v>1.068787273298907</v>
+        <v>1.11448927554915</v>
       </c>
       <c r="N11">
-        <v>1.062517420671693</v>
+        <v>1.10326520068737</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.030367710997548</v>
+        <v>1.09514676110674</v>
       </c>
       <c r="D12">
-        <v>1.044938758603014</v>
+        <v>1.093280192810235</v>
       </c>
       <c r="E12">
-        <v>1.048797373086326</v>
+        <v>1.107459674608827</v>
       </c>
       <c r="F12">
-        <v>1.052405706031717</v>
+        <v>1.110800922068431</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.064634188954331</v>
+        <v>1.073262917638531</v>
       </c>
       <c r="J12">
-        <v>1.05894023011126</v>
+        <v>1.101389761866981</v>
       </c>
       <c r="K12">
-        <v>1.059252836410952</v>
+        <v>1.096689472436916</v>
       </c>
       <c r="L12">
-        <v>1.06304582526391</v>
+        <v>1.110822306665033</v>
       </c>
       <c r="M12">
-        <v>1.066593350599479</v>
+        <v>1.114152752022571</v>
       </c>
       <c r="N12">
-        <v>1.06044404670016</v>
+        <v>1.102953861660003</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.030923787603213</v>
+        <v>1.095231020909518</v>
       </c>
       <c r="D13">
-        <v>1.045403977387876</v>
+        <v>1.093350061775877</v>
       </c>
       <c r="E13">
-        <v>1.049322026356929</v>
+        <v>1.10754150168857</v>
       </c>
       <c r="F13">
-        <v>1.052928349175455</v>
+        <v>1.110882300506475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.064906153062235</v>
+        <v>1.073297394987653</v>
       </c>
       <c r="J13">
-        <v>1.059386649801929</v>
+        <v>1.101456479147769</v>
       </c>
       <c r="K13">
-        <v>1.059668817688505</v>
+        <v>1.096750043375709</v>
       </c>
       <c r="L13">
-        <v>1.063520532108433</v>
+        <v>1.110894934923966</v>
       </c>
       <c r="M13">
-        <v>1.067066360265747</v>
+        <v>1.114224965212242</v>
       </c>
       <c r="N13">
-        <v>1.060891100357995</v>
+        <v>1.103020673686983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.032735111701005</v>
+        <v>1.095507007354772</v>
       </c>
       <c r="D14">
-        <v>1.046919368703814</v>
+        <v>1.093578891257335</v>
       </c>
       <c r="E14">
-        <v>1.051031217831246</v>
+        <v>1.107809526168571</v>
       </c>
       <c r="F14">
-        <v>1.054630983253627</v>
+        <v>1.111148852686238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.065791555929681</v>
+        <v>1.073410266271705</v>
       </c>
       <c r="J14">
-        <v>1.060840551882083</v>
+        <v>1.101674973423352</v>
       </c>
       <c r="K14">
-        <v>1.061023448976723</v>
+        <v>1.096948389998641</v>
       </c>
       <c r="L14">
-        <v>1.065066712669997</v>
+        <v>1.111132803010338</v>
       </c>
       <c r="M14">
-        <v>1.068606998934979</v>
+        <v>1.114461470902029</v>
       </c>
       <c r="N14">
-        <v>1.062347067145868</v>
+        <v>1.103239478249499</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.033843063384905</v>
+        <v>1.095676977679567</v>
       </c>
       <c r="D15">
-        <v>1.047846317329162</v>
+        <v>1.093719803273135</v>
       </c>
       <c r="E15">
-        <v>1.052076865217535</v>
+        <v>1.107974597759288</v>
       </c>
       <c r="F15">
-        <v>1.055672612001118</v>
+        <v>1.1113130153894</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.066332776777657</v>
+        <v>1.073479736401698</v>
       </c>
       <c r="J15">
-        <v>1.06172969575199</v>
+        <v>1.101809511089736</v>
       </c>
       <c r="K15">
-        <v>1.06185177693162</v>
+        <v>1.097070507356642</v>
       </c>
       <c r="L15">
-        <v>1.06601240645202</v>
+        <v>1.111279282164054</v>
       </c>
       <c r="M15">
-        <v>1.06954929233337</v>
+        <v>1.11460710880802</v>
       </c>
       <c r="N15">
-        <v>1.063237473702056</v>
+        <v>1.103374206974801</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.040173667703551</v>
+        <v>1.096665158386669</v>
       </c>
       <c r="D16">
-        <v>1.05314279994168</v>
+        <v>1.094538799206305</v>
       </c>
       <c r="E16">
-        <v>1.058053912801184</v>
+        <v>1.108934370266072</v>
       </c>
       <c r="F16">
-        <v>1.061626577231362</v>
+        <v>1.112267470976812</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069419690083329</v>
+        <v>1.073882963918271</v>
       </c>
       <c r="J16">
-        <v>1.066807315954416</v>
+        <v>1.102591306489713</v>
       </c>
       <c r="K16">
-        <v>1.066580491997362</v>
+        <v>1.097779908852546</v>
       </c>
       <c r="L16">
-        <v>1.071414706293328</v>
+        <v>1.112130653519183</v>
       </c>
       <c r="M16">
-        <v>1.074932000516816</v>
+        <v>1.11545355579665</v>
       </c>
       <c r="N16">
-        <v>1.06832230470758</v>
+        <v>1.104157112613919</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.044045721934168</v>
+        <v>1.097284042736935</v>
       </c>
       <c r="D17">
-        <v>1.056382313791529</v>
+        <v>1.095051509976554</v>
       </c>
       <c r="E17">
-        <v>1.06171174999122</v>
+        <v>1.109535526188412</v>
       </c>
       <c r="F17">
-        <v>1.065270184561751</v>
+        <v>1.112865268123239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.07130290684409</v>
+        <v>1.074134918045741</v>
       </c>
       <c r="J17">
-        <v>1.069910522313198</v>
+        <v>1.103080595096823</v>
       </c>
       <c r="K17">
-        <v>1.069469054264735</v>
+        <v>1.098223696078308</v>
       </c>
       <c r="L17">
-        <v>1.074717853016397</v>
+        <v>1.112663648593778</v>
       </c>
       <c r="M17">
-        <v>1.078223017755339</v>
+        <v>1.115983437341798</v>
       </c>
       <c r="N17">
-        <v>1.071429917975335</v>
+        <v>1.104647096066973</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.046270455174448</v>
+        <v>1.097644680421539</v>
       </c>
       <c r="D18">
-        <v>1.05824356199684</v>
+        <v>1.095350200208234</v>
       </c>
       <c r="E18">
-        <v>1.063814096128355</v>
+        <v>1.109885855765497</v>
       </c>
       <c r="F18">
-        <v>1.067364312304196</v>
+        <v>1.113213630070369</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.072383164847031</v>
+        <v>1.074281527639606</v>
       </c>
       <c r="J18">
-        <v>1.071692595606929</v>
+        <v>1.103365592132995</v>
       </c>
       <c r="K18">
-        <v>1.071127355285567</v>
+        <v>1.098482120097344</v>
       </c>
       <c r="L18">
-        <v>1.076615284823959</v>
+        <v>1.112974161876557</v>
       </c>
       <c r="M18">
-        <v>1.080113426226701</v>
+        <v>1.116292125690361</v>
       </c>
       <c r="N18">
-        <v>1.073214522017549</v>
+        <v>1.104932497831626</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.047023472612123</v>
+        <v>1.097767590092253</v>
       </c>
       <c r="D19">
-        <v>1.058873536249507</v>
+        <v>1.095451984241721</v>
       </c>
       <c r="E19">
-        <v>1.064525802891749</v>
+        <v>1.110005256135418</v>
       </c>
       <c r="F19">
-        <v>1.068073229937452</v>
+        <v>1.113332358085122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.072748504568411</v>
+        <v>1.074331458388904</v>
       </c>
       <c r="J19">
-        <v>1.072295627412523</v>
+        <v>1.103462701807272</v>
       </c>
       <c r="K19">
-        <v>1.071688417539355</v>
+        <v>1.098570163473807</v>
       </c>
       <c r="L19">
-        <v>1.077257443601726</v>
+        <v>1.113079975850924</v>
       </c>
       <c r="M19">
-        <v>1.080753198447035</v>
+        <v>1.116397315905818</v>
       </c>
       <c r="N19">
-        <v>1.073818410197477</v>
+        <v>1.10502974541278</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.043633820992276</v>
+        <v>1.097217678302862</v>
       </c>
       <c r="D20">
-        <v>1.056037705642679</v>
+        <v>1.094996538828622</v>
       </c>
       <c r="E20">
-        <v>1.061322564021172</v>
+        <v>1.109471060469463</v>
       </c>
       <c r="F20">
-        <v>1.064882516702708</v>
+        <v>1.112801163649607</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.071102757573237</v>
+        <v>1.074107922104456</v>
       </c>
       <c r="J20">
-        <v>1.069580503960465</v>
+        <v>1.103028140177732</v>
       </c>
       <c r="K20">
-        <v>1.069161915695043</v>
+        <v>1.098176126418628</v>
       </c>
       <c r="L20">
-        <v>1.074366515310743</v>
+        <v>1.11260650200922</v>
       </c>
       <c r="M20">
-        <v>1.077872975964128</v>
+        <v>1.115926625726492</v>
       </c>
       <c r="N20">
-        <v>1.071099430958687</v>
+        <v>1.10459456665588</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.032203414396637</v>
+        <v>1.095425751673032</v>
       </c>
       <c r="D21">
-        <v>1.046474536664395</v>
+        <v>1.093511522819197</v>
       </c>
       <c r="E21">
-        <v>1.050529465183286</v>
+        <v>1.107730613648894</v>
       </c>
       <c r="F21">
-        <v>1.0541311570434</v>
+        <v>1.11107037408783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.065531729931628</v>
+        <v>1.073377043835071</v>
       </c>
       <c r="J21">
-        <v>1.060413809921218</v>
+        <v>1.101610649797343</v>
       </c>
       <c r="K21">
-        <v>1.060625866663404</v>
+        <v>1.096890000743631</v>
       </c>
       <c r="L21">
-        <v>1.064612861234142</v>
+        <v>1.111062773313727</v>
       </c>
       <c r="M21">
-        <v>1.068154776458255</v>
+        <v>1.114391842778545</v>
       </c>
       <c r="N21">
-        <v>1.061919719162471</v>
+        <v>1.103175063276562</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.024669415991272</v>
+        <v>1.094295874929246</v>
       </c>
       <c r="D22">
-        <v>1.040171751344837</v>
+        <v>1.092574464941935</v>
       </c>
       <c r="E22">
-        <v>1.043422949586516</v>
+        <v>1.106633404586854</v>
       </c>
       <c r="F22">
-        <v>1.047051806181027</v>
+        <v>1.109979160301807</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.061843491177078</v>
+        <v>1.072914303785145</v>
       </c>
       <c r="J22">
-        <v>1.054363775487892</v>
+        <v>1.100715764683209</v>
       </c>
       <c r="K22">
-        <v>1.054987302867824</v>
+        <v>1.096077417946469</v>
       </c>
       <c r="L22">
-        <v>1.058180626680405</v>
+        <v>1.110088720363053</v>
       </c>
       <c r="M22">
-        <v>1.061745436276543</v>
+        <v>1.113423334467284</v>
       </c>
       <c r="N22">
-        <v>1.0558610929863</v>
+        <v>1.102278907322922</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.028698543968863</v>
+        <v>1.09489515392162</v>
       </c>
       <c r="D23">
-        <v>1.043542339713023</v>
+        <v>1.093071540258958</v>
       </c>
       <c r="E23">
-        <v>1.047222723074086</v>
+        <v>1.107215337031973</v>
       </c>
       <c r="F23">
-        <v>1.050837081671107</v>
+        <v>1.110557921797723</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.063817435544811</v>
+        <v>1.073159917346282</v>
       </c>
       <c r="J23">
-        <v>1.05760002124114</v>
+        <v>1.101190510272134</v>
       </c>
       <c r="K23">
-        <v>1.058003889235557</v>
+        <v>1.096508560997859</v>
       </c>
       <c r="L23">
-        <v>1.061620825524352</v>
+        <v>1.110605415255548</v>
       </c>
       <c r="M23">
-        <v>1.06517343376746</v>
+        <v>1.113937097617776</v>
       </c>
       <c r="N23">
-        <v>1.059101934579721</v>
+        <v>1.102754327105038</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.043820045210919</v>
+        <v>1.097247666606437</v>
       </c>
       <c r="D24">
-        <v>1.056193506338787</v>
+        <v>1.095021379052875</v>
       </c>
       <c r="E24">
-        <v>1.061498516442649</v>
+        <v>1.109500190724758</v>
       </c>
       <c r="F24">
-        <v>1.065057782904778</v>
+        <v>1.112830130699995</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.071193252401829</v>
+        <v>1.074120121492796</v>
       </c>
       <c r="J24">
-        <v>1.069729711138107</v>
+        <v>1.103051843523618</v>
       </c>
       <c r="K24">
-        <v>1.069300780098724</v>
+        <v>1.098197622427504</v>
       </c>
       <c r="L24">
-        <v>1.074525359671888</v>
+        <v>1.112632325245712</v>
       </c>
       <c r="M24">
-        <v>1.078031234599307</v>
+        <v>1.115952297632188</v>
       </c>
       <c r="N24">
-        <v>1.071248850027636</v>
+        <v>1.104618303663236</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.060057055432304</v>
+        <v>1.099964058405922</v>
       </c>
       <c r="D25">
-        <v>1.069775662472731</v>
+        <v>1.097269768238825</v>
       </c>
       <c r="E25">
-        <v>1.076853470280696</v>
+        <v>1.112139342858918</v>
       </c>
       <c r="F25">
-        <v>1.080351952008303</v>
+        <v>1.115454275285395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.079046026586629</v>
+        <v>1.075220639386138</v>
       </c>
       <c r="J25">
-        <v>1.082719522444086</v>
+        <v>1.105196293482221</v>
       </c>
       <c r="K25">
-        <v>1.081379427946133</v>
+        <v>1.100140870677676</v>
       </c>
       <c r="L25">
-        <v>1.088365363519657</v>
+        <v>1.114969822198621</v>
       </c>
       <c r="M25">
-        <v>1.091818989373422</v>
+        <v>1.118275858068329</v>
       </c>
       <c r="N25">
-        <v>1.084257108355622</v>
+        <v>1.106765798986753</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.102120194723294</v>
+        <v>1.072131557270681</v>
       </c>
       <c r="D2">
-        <v>1.099051961338214</v>
+        <v>1.0798703008704</v>
       </c>
       <c r="E2">
-        <v>1.114234865966422</v>
+        <v>1.088289264967721</v>
       </c>
       <c r="F2">
-        <v>1.117537558719009</v>
+        <v>1.091741047045343</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.076087562473893</v>
+        <v>1.08483082642358</v>
       </c>
       <c r="J2">
-        <v>1.106894590211531</v>
+        <v>1.092349849233076</v>
       </c>
       <c r="K2">
-        <v>1.101677628943686</v>
+        <v>1.09031872624564</v>
       </c>
       <c r="L2">
-        <v>1.116822843137496</v>
+        <v>1.098641796817143</v>
       </c>
       <c r="M2">
-        <v>1.120117483042885</v>
+        <v>1.102054788841247</v>
       </c>
       <c r="N2">
-        <v>1.108466507492216</v>
+        <v>1.093901111313266</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.103679922697071</v>
+        <v>1.080463150612892</v>
       </c>
       <c r="D3">
-        <v>1.10033974590183</v>
+        <v>1.086830981882087</v>
       </c>
       <c r="E3">
-        <v>1.115751141942976</v>
+        <v>1.09618866427069</v>
       </c>
       <c r="F3">
-        <v>1.119044790983635</v>
+        <v>1.099607279093174</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.076710851473056</v>
+        <v>1.088790182003391</v>
       </c>
       <c r="J3">
-        <v>1.10812088154234</v>
+        <v>1.098977195547017</v>
       </c>
       <c r="K3">
-        <v>1.10278600374313</v>
+        <v>1.096461501841636</v>
       </c>
       <c r="L3">
-        <v>1.118161923766851</v>
+        <v>1.105722727817308</v>
       </c>
       <c r="M3">
-        <v>1.121448126731981</v>
+        <v>1.109106603046042</v>
       </c>
       <c r="N3">
-        <v>1.109694540297372</v>
+        <v>1.100537869219139</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.10468655781842</v>
+        <v>1.085672906521724</v>
       </c>
       <c r="D4">
-        <v>1.101170204090461</v>
+        <v>1.091180858836559</v>
       </c>
       <c r="E4">
-        <v>1.116729913526745</v>
+        <v>1.101131711085046</v>
       </c>
       <c r="F4">
-        <v>1.120017638135905</v>
+        <v>1.104529127899792</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.077111342229048</v>
+        <v>1.091250881115138</v>
       </c>
       <c r="J4">
-        <v>1.10891128245145</v>
+        <v>1.103112870307621</v>
       </c>
       <c r="K4">
-        <v>1.103499812096899</v>
+        <v>1.100290592883867</v>
       </c>
       <c r="L4">
-        <v>1.119025516632918</v>
+        <v>1.110145551973463</v>
       </c>
       <c r="M4">
-        <v>1.122306185179208</v>
+        <v>1.11351070720985</v>
       </c>
       <c r="N4">
-        <v>1.110486063666433</v>
+        <v>1.104679417112272</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.105109132744103</v>
+        <v>1.087822354831633</v>
       </c>
       <c r="D5">
-        <v>1.101518661710576</v>
+        <v>1.092974842631468</v>
       </c>
       <c r="E5">
-        <v>1.117140834327761</v>
+        <v>1.103171917161603</v>
       </c>
       <c r="F5">
-        <v>1.120426050929197</v>
+        <v>1.106560475035959</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.077279039038809</v>
+        <v>1.092262470578478</v>
       </c>
       <c r="J5">
-        <v>1.10924283606839</v>
+        <v>1.104817122930408</v>
       </c>
       <c r="K5">
-        <v>1.103799095674669</v>
+        <v>1.101867495177304</v>
       </c>
       <c r="L5">
-        <v>1.119387890839413</v>
+        <v>1.111969114132475</v>
       </c>
       <c r="M5">
-        <v>1.122666214727977</v>
+        <v>1.115326420700337</v>
       </c>
       <c r="N5">
-        <v>1.110818088127538</v>
+        <v>1.106386089969264</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.105180049221648</v>
+        <v>1.08818094127859</v>
       </c>
       <c r="D6">
-        <v>1.101577130430754</v>
+        <v>1.093274085423846</v>
       </c>
       <c r="E6">
-        <v>1.11720979750407</v>
+        <v>1.103512324455097</v>
       </c>
       <c r="F6">
-        <v>1.120494591980725</v>
+        <v>1.106899397684422</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.077307156965545</v>
+        <v>1.092431015748008</v>
       </c>
       <c r="J6">
-        <v>1.109298462783838</v>
+        <v>1.105101317175774</v>
       </c>
       <c r="K6">
-        <v>1.103849299959338</v>
+        <v>1.102130393345049</v>
       </c>
       <c r="L6">
-        <v>1.119448695453857</v>
+        <v>1.112273261474168</v>
       </c>
       <c r="M6">
-        <v>1.122726624609362</v>
+        <v>1.115629251253571</v>
       </c>
       <c r="N6">
-        <v>1.110873793839303</v>
+        <v>1.106670687803056</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.104692206685987</v>
+        <v>1.085701784253633</v>
       </c>
       <c r="D7">
-        <v>1.10117486280772</v>
+        <v>1.091204963746885</v>
       </c>
       <c r="E7">
-        <v>1.116735406437727</v>
+        <v>1.101159118062766</v>
       </c>
       <c r="F7">
-        <v>1.120023097603054</v>
+        <v>1.104556416309679</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077113585626122</v>
+        <v>1.091264486261885</v>
       </c>
       <c r="J7">
-        <v>1.108915715547764</v>
+        <v>1.103135775017138</v>
       </c>
       <c r="K7">
-        <v>1.10350381427707</v>
+        <v>1.100311790053673</v>
       </c>
       <c r="L7">
-        <v>1.119030361355681</v>
+        <v>1.110170056294995</v>
       </c>
       <c r="M7">
-        <v>1.122310998643214</v>
+        <v>1.113535106583188</v>
       </c>
       <c r="N7">
-        <v>1.110490503058253</v>
+        <v>1.104702354349104</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.102647859888752</v>
+        <v>1.074986504112626</v>
       </c>
       <c r="D8">
-        <v>1.099487764558405</v>
+        <v>1.082256005416709</v>
       </c>
       <c r="E8">
-        <v>1.114747793487073</v>
+        <v>1.090995330029611</v>
       </c>
       <c r="F8">
-        <v>1.118047444890255</v>
+        <v>1.094435841922059</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.076298792814556</v>
+        <v>1.086190735854759</v>
       </c>
       <c r="J8">
-        <v>1.107309666804293</v>
+        <v>1.094622570783167</v>
       </c>
       <c r="K8">
-        <v>1.102052915413728</v>
+        <v>1.092426160012104</v>
       </c>
       <c r="L8">
-        <v>1.117275994263278</v>
+        <v>1.101069195250525</v>
       </c>
       <c r="M8">
-        <v>1.120567798428859</v>
+        <v>1.104472317288129</v>
       </c>
       <c r="N8">
-        <v>1.108882173541349</v>
+        <v>1.096177060388642</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.099024944878801</v>
+        <v>1.054580043377619</v>
       </c>
       <c r="D9">
-        <v>1.09649283470093</v>
+        <v>1.065194839140686</v>
       </c>
       <c r="E9">
-        <v>1.111226823637951</v>
+        <v>1.071671007850928</v>
       </c>
       <c r="F9">
-        <v>1.114546995310073</v>
+        <v>1.075190221177129</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.074841193180937</v>
+        <v>1.076405866775574</v>
       </c>
       <c r="J9">
-        <v>1.104455510953423</v>
+        <v>1.078342451631569</v>
       </c>
       <c r="K9">
-        <v>1.099469932736697</v>
+        <v>1.077311867557864</v>
       </c>
       <c r="L9">
-        <v>1.114162067321344</v>
+        <v>1.083699245627458</v>
       </c>
       <c r="M9">
-        <v>1.117472973176619</v>
+        <v>1.087170773305332</v>
       </c>
       <c r="N9">
-        <v>1.106023964461795</v>
+        <v>1.079873821600493</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.096595171219803</v>
+        <v>1.039731385596849</v>
       </c>
       <c r="D10">
-        <v>1.094480808266609</v>
+        <v>1.052772765065854</v>
       </c>
       <c r="E10">
-        <v>1.108866391013653</v>
+        <v>1.057636197344846</v>
       </c>
       <c r="F10">
-        <v>1.112199870146776</v>
+        <v>1.061210481502093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.073854443032921</v>
+        <v>1.069204340046557</v>
       </c>
       <c r="J10">
-        <v>1.102535958225246</v>
+        <v>1.066452731467293</v>
       </c>
       <c r="K10">
-        <v>1.097729698252792</v>
+        <v>1.066250363842434</v>
       </c>
       <c r="L10">
-        <v>1.1120703691023</v>
+        <v>1.071037350178926</v>
       </c>
       <c r="M10">
-        <v>1.115393622038903</v>
+        <v>1.074556022552493</v>
       </c>
       <c r="N10">
-        <v>1.104101685748568</v>
+        <v>1.067967216669815</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.095539456243773</v>
+        <v>1.032947072884805</v>
       </c>
       <c r="D11">
-        <v>1.093605793593573</v>
+        <v>1.047096701673657</v>
       </c>
       <c r="E11">
-        <v>1.107841039563908</v>
+        <v>1.05123124977194</v>
       </c>
       <c r="F11">
-        <v>1.111180192693464</v>
+        <v>1.054830246847651</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.073423531310431</v>
+        <v>1.06589511787659</v>
       </c>
       <c r="J11">
-        <v>1.101700659384212</v>
+        <v>1.061010663829431</v>
       </c>
       <c r="K11">
-        <v>1.096971705521693</v>
+        <v>1.061181931844811</v>
       </c>
       <c r="L11">
-        <v>1.111160768129803</v>
+        <v>1.06524763693241</v>
       </c>
       <c r="M11">
-        <v>1.11448927554915</v>
+        <v>1.068787273298907</v>
       </c>
       <c r="N11">
-        <v>1.10326520068737</v>
+        <v>1.062517420671693</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.09514676110674</v>
+        <v>1.03036771099755</v>
       </c>
       <c r="D12">
-        <v>1.093280192810235</v>
+        <v>1.044938758603016</v>
       </c>
       <c r="E12">
-        <v>1.107459674608827</v>
+        <v>1.048797373086327</v>
       </c>
       <c r="F12">
-        <v>1.110800922068431</v>
+        <v>1.052405706031718</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.073262917638531</v>
+        <v>1.064634188954331</v>
       </c>
       <c r="J12">
-        <v>1.101389761866981</v>
+        <v>1.058940230111261</v>
       </c>
       <c r="K12">
-        <v>1.096689472436916</v>
+        <v>1.059252836410953</v>
       </c>
       <c r="L12">
-        <v>1.110822306665033</v>
+        <v>1.063045825263911</v>
       </c>
       <c r="M12">
-        <v>1.114152752022571</v>
+        <v>1.06659335059948</v>
       </c>
       <c r="N12">
-        <v>1.102953861660003</v>
+        <v>1.060444046700161</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.095231020909518</v>
+        <v>1.030923787603214</v>
       </c>
       <c r="D13">
-        <v>1.093350061775877</v>
+        <v>1.045403977387877</v>
       </c>
       <c r="E13">
-        <v>1.10754150168857</v>
+        <v>1.04932202635693</v>
       </c>
       <c r="F13">
-        <v>1.110882300506475</v>
+        <v>1.052928349175456</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.073297394987653</v>
+        <v>1.064906153062235</v>
       </c>
       <c r="J13">
-        <v>1.101456479147769</v>
+        <v>1.05938664980193</v>
       </c>
       <c r="K13">
-        <v>1.096750043375709</v>
+        <v>1.059668817688506</v>
       </c>
       <c r="L13">
-        <v>1.110894934923966</v>
+        <v>1.063520532108434</v>
       </c>
       <c r="M13">
-        <v>1.114224965212242</v>
+        <v>1.067066360265748</v>
       </c>
       <c r="N13">
-        <v>1.103020673686983</v>
+        <v>1.060891100357995</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.095507007354772</v>
+        <v>1.032735111701004</v>
       </c>
       <c r="D14">
-        <v>1.093578891257335</v>
+        <v>1.046919368703813</v>
       </c>
       <c r="E14">
-        <v>1.107809526168571</v>
+        <v>1.051031217831245</v>
       </c>
       <c r="F14">
-        <v>1.111148852686238</v>
+        <v>1.054630983253626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.073410266271705</v>
+        <v>1.065791555929681</v>
       </c>
       <c r="J14">
-        <v>1.101674973423352</v>
+        <v>1.060840551882082</v>
       </c>
       <c r="K14">
-        <v>1.096948389998641</v>
+        <v>1.061023448976722</v>
       </c>
       <c r="L14">
-        <v>1.111132803010338</v>
+        <v>1.065066712669996</v>
       </c>
       <c r="M14">
-        <v>1.114461470902029</v>
+        <v>1.068606998934978</v>
       </c>
       <c r="N14">
-        <v>1.103239478249499</v>
+        <v>1.062347067145867</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.095676977679567</v>
+        <v>1.033843063384908</v>
       </c>
       <c r="D15">
-        <v>1.093719803273135</v>
+        <v>1.047846317329165</v>
       </c>
       <c r="E15">
-        <v>1.107974597759288</v>
+        <v>1.052076865217538</v>
       </c>
       <c r="F15">
-        <v>1.1113130153894</v>
+        <v>1.055672612001121</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.073479736401698</v>
+        <v>1.066332776777659</v>
       </c>
       <c r="J15">
-        <v>1.101809511089736</v>
+        <v>1.061729695751993</v>
       </c>
       <c r="K15">
-        <v>1.097070507356642</v>
+        <v>1.061851776931623</v>
       </c>
       <c r="L15">
-        <v>1.111279282164054</v>
+        <v>1.066012406452023</v>
       </c>
       <c r="M15">
-        <v>1.11460710880802</v>
+        <v>1.069549292333373</v>
       </c>
       <c r="N15">
-        <v>1.103374206974801</v>
+        <v>1.063237473702059</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.096665158386669</v>
+        <v>1.040173667703548</v>
       </c>
       <c r="D16">
-        <v>1.094538799206305</v>
+        <v>1.053142799941678</v>
       </c>
       <c r="E16">
-        <v>1.108934370266072</v>
+        <v>1.058053912801182</v>
       </c>
       <c r="F16">
-        <v>1.112267470976812</v>
+        <v>1.061626577231359</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.073882963918271</v>
+        <v>1.069419690083327</v>
       </c>
       <c r="J16">
-        <v>1.102591306489713</v>
+        <v>1.066807315954413</v>
       </c>
       <c r="K16">
-        <v>1.097779908852546</v>
+        <v>1.066580491997359</v>
       </c>
       <c r="L16">
-        <v>1.112130653519183</v>
+        <v>1.071414706293326</v>
       </c>
       <c r="M16">
-        <v>1.11545355579665</v>
+        <v>1.074932000516814</v>
       </c>
       <c r="N16">
-        <v>1.104157112613919</v>
+        <v>1.068322304707577</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.097284042736935</v>
+        <v>1.044045721934168</v>
       </c>
       <c r="D17">
-        <v>1.095051509976554</v>
+        <v>1.056382313791529</v>
       </c>
       <c r="E17">
-        <v>1.109535526188412</v>
+        <v>1.06171174999122</v>
       </c>
       <c r="F17">
-        <v>1.112865268123239</v>
+        <v>1.065270184561751</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.074134918045741</v>
+        <v>1.07130290684409</v>
       </c>
       <c r="J17">
-        <v>1.103080595096823</v>
+        <v>1.069910522313197</v>
       </c>
       <c r="K17">
-        <v>1.098223696078308</v>
+        <v>1.069469054264735</v>
       </c>
       <c r="L17">
-        <v>1.112663648593778</v>
+        <v>1.074717853016397</v>
       </c>
       <c r="M17">
-        <v>1.115983437341798</v>
+        <v>1.078223017755339</v>
       </c>
       <c r="N17">
-        <v>1.104647096066973</v>
+        <v>1.071429917975334</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.097644680421539</v>
+        <v>1.046270455174442</v>
       </c>
       <c r="D18">
-        <v>1.095350200208234</v>
+        <v>1.058243561996834</v>
       </c>
       <c r="E18">
-        <v>1.109885855765497</v>
+        <v>1.063814096128348</v>
       </c>
       <c r="F18">
-        <v>1.113213630070369</v>
+        <v>1.067364312304189</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.074281527639606</v>
+        <v>1.072383164847027</v>
       </c>
       <c r="J18">
-        <v>1.103365592132995</v>
+        <v>1.071692595606923</v>
       </c>
       <c r="K18">
-        <v>1.098482120097344</v>
+        <v>1.071127355285561</v>
       </c>
       <c r="L18">
-        <v>1.112974161876557</v>
+        <v>1.076615284823953</v>
       </c>
       <c r="M18">
-        <v>1.116292125690361</v>
+        <v>1.080113426226694</v>
       </c>
       <c r="N18">
-        <v>1.104932497831626</v>
+        <v>1.073214522017543</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.097767590092253</v>
+        <v>1.047023472612124</v>
       </c>
       <c r="D19">
-        <v>1.095451984241721</v>
+        <v>1.058873536249508</v>
       </c>
       <c r="E19">
-        <v>1.110005256135418</v>
+        <v>1.06452580289175</v>
       </c>
       <c r="F19">
-        <v>1.113332358085122</v>
+        <v>1.068073229937454</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.074331458388904</v>
+        <v>1.072748504568412</v>
       </c>
       <c r="J19">
-        <v>1.103462701807272</v>
+        <v>1.072295627412525</v>
       </c>
       <c r="K19">
-        <v>1.098570163473807</v>
+        <v>1.071688417539356</v>
       </c>
       <c r="L19">
-        <v>1.113079975850924</v>
+        <v>1.077257443601727</v>
       </c>
       <c r="M19">
-        <v>1.116397315905818</v>
+        <v>1.080753198447036</v>
       </c>
       <c r="N19">
-        <v>1.10502974541278</v>
+        <v>1.073818410197478</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.097217678302862</v>
+        <v>1.043633820992278</v>
       </c>
       <c r="D20">
-        <v>1.094996538828622</v>
+        <v>1.05603770564268</v>
       </c>
       <c r="E20">
-        <v>1.109471060469463</v>
+        <v>1.061322564021174</v>
       </c>
       <c r="F20">
-        <v>1.112801163649607</v>
+        <v>1.064882516702709</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.074107922104456</v>
+        <v>1.071102757573238</v>
       </c>
       <c r="J20">
-        <v>1.103028140177732</v>
+        <v>1.069580503960467</v>
       </c>
       <c r="K20">
-        <v>1.098176126418628</v>
+        <v>1.069161915695045</v>
       </c>
       <c r="L20">
-        <v>1.11260650200922</v>
+        <v>1.074366515310745</v>
       </c>
       <c r="M20">
-        <v>1.115926625726492</v>
+        <v>1.07787297596413</v>
       </c>
       <c r="N20">
-        <v>1.10459456665588</v>
+        <v>1.071099430958689</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.095425751673032</v>
+        <v>1.032203414396639</v>
       </c>
       <c r="D21">
-        <v>1.093511522819197</v>
+        <v>1.046474536664397</v>
       </c>
       <c r="E21">
-        <v>1.107730613648894</v>
+        <v>1.050529465183288</v>
       </c>
       <c r="F21">
-        <v>1.11107037408783</v>
+        <v>1.054131157043403</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.073377043835071</v>
+        <v>1.065531729931629</v>
       </c>
       <c r="J21">
-        <v>1.101610649797343</v>
+        <v>1.06041380992122</v>
       </c>
       <c r="K21">
-        <v>1.096890000743631</v>
+        <v>1.060625866663406</v>
       </c>
       <c r="L21">
-        <v>1.111062773313727</v>
+        <v>1.064612861234144</v>
       </c>
       <c r="M21">
-        <v>1.114391842778545</v>
+        <v>1.068154776458258</v>
       </c>
       <c r="N21">
-        <v>1.103175063276562</v>
+        <v>1.061919719162472</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.094295874929246</v>
+        <v>1.024669415991275</v>
       </c>
       <c r="D22">
-        <v>1.092574464941935</v>
+        <v>1.040171751344839</v>
       </c>
       <c r="E22">
-        <v>1.106633404586854</v>
+        <v>1.043422949586518</v>
       </c>
       <c r="F22">
-        <v>1.109979160301807</v>
+        <v>1.047051806181029</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.072914303785145</v>
+        <v>1.06184349117708</v>
       </c>
       <c r="J22">
-        <v>1.100715764683209</v>
+        <v>1.054363775487895</v>
       </c>
       <c r="K22">
-        <v>1.096077417946469</v>
+        <v>1.054987302867826</v>
       </c>
       <c r="L22">
-        <v>1.110088720363053</v>
+        <v>1.058180626680408</v>
       </c>
       <c r="M22">
-        <v>1.113423334467284</v>
+        <v>1.061745436276545</v>
       </c>
       <c r="N22">
-        <v>1.102278907322922</v>
+        <v>1.055861092986303</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.09489515392162</v>
+        <v>1.028698543968861</v>
       </c>
       <c r="D23">
-        <v>1.093071540258958</v>
+        <v>1.043542339713021</v>
       </c>
       <c r="E23">
-        <v>1.107215337031973</v>
+        <v>1.047222723074084</v>
       </c>
       <c r="F23">
-        <v>1.110557921797723</v>
+        <v>1.050837081671105</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.073159917346282</v>
+        <v>1.06381743554481</v>
       </c>
       <c r="J23">
-        <v>1.101190510272134</v>
+        <v>1.057600021241139</v>
       </c>
       <c r="K23">
-        <v>1.096508560997859</v>
+        <v>1.058003889235556</v>
       </c>
       <c r="L23">
-        <v>1.110605415255548</v>
+        <v>1.06162082552435</v>
       </c>
       <c r="M23">
-        <v>1.113937097617776</v>
+        <v>1.065173433767458</v>
       </c>
       <c r="N23">
-        <v>1.102754327105038</v>
+        <v>1.059101934579719</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.097247666606437</v>
+        <v>1.04382004521092</v>
       </c>
       <c r="D24">
-        <v>1.095021379052875</v>
+        <v>1.056193506338788</v>
       </c>
       <c r="E24">
-        <v>1.109500190724758</v>
+        <v>1.061498516442651</v>
       </c>
       <c r="F24">
-        <v>1.112830130699995</v>
+        <v>1.06505778290478</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.074120121492796</v>
+        <v>1.07119325240183</v>
       </c>
       <c r="J24">
-        <v>1.103051843523618</v>
+        <v>1.069729711138108</v>
       </c>
       <c r="K24">
-        <v>1.098197622427504</v>
+        <v>1.069300780098725</v>
       </c>
       <c r="L24">
-        <v>1.112632325245712</v>
+        <v>1.074525359671889</v>
       </c>
       <c r="M24">
-        <v>1.115952297632188</v>
+        <v>1.078031234599309</v>
       </c>
       <c r="N24">
-        <v>1.104618303663236</v>
+        <v>1.071248850027637</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.099964058405922</v>
+        <v>1.060057055432301</v>
       </c>
       <c r="D25">
-        <v>1.097269768238825</v>
+        <v>1.06977566247273</v>
       </c>
       <c r="E25">
-        <v>1.112139342858918</v>
+        <v>1.076853470280694</v>
       </c>
       <c r="F25">
-        <v>1.115454275285395</v>
+        <v>1.0803519520083</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.075220639386138</v>
+        <v>1.079046026586628</v>
       </c>
       <c r="J25">
-        <v>1.105196293482221</v>
+        <v>1.082719522444084</v>
       </c>
       <c r="K25">
-        <v>1.100140870677676</v>
+        <v>1.081379427946131</v>
       </c>
       <c r="L25">
-        <v>1.114969822198621</v>
+        <v>1.088365363519655</v>
       </c>
       <c r="M25">
-        <v>1.118275858068329</v>
+        <v>1.09181898937342</v>
       </c>
       <c r="N25">
-        <v>1.106765798986753</v>
+        <v>1.08425710835562</v>
       </c>
     </row>
   </sheetData>
